--- a/config_Release/xiaoxiaole_sh_defen_cfg.xlsx
+++ b/config_Release/xiaoxiaole_sh_defen_cfg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="C2" sqref="C2:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -521,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -532,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>30000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>60000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -565,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>120000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -576,7 +576,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2">
-        <v>240000</v>
+        <v>480000</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -587,7 +590,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="2">
-        <v>480000</v>
+        <v>960000</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -598,7 +604,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="2">
-        <v>960000</v>
+        <v>1920000</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -609,7 +618,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="2">
-        <v>1920000</v>
+        <v>5120000</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -620,10 +632,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="2">
-        <v>5120000</v>
+        <v>10240000</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -634,10 +646,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="2">
-        <v>10240000</v>
+        <v>20480000</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">

--- a/config_Release/xiaoxiaole_sh_defen_cfg.xlsx
+++ b/config_Release/xiaoxiaole_sh_defen_cfg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D14"/>
+      <selection activeCell="D6" sqref="D6:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -545,6 +545,9 @@
       <c r="C6" s="2">
         <v>60000</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -556,6 +559,9 @@
       <c r="C7" s="2">
         <v>120000</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -567,6 +573,9 @@
       <c r="C8" s="2">
         <v>240000</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -579,7 +588,7 @@
         <v>480000</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">

--- a/config_Release/xiaoxiaole_sh_defen_cfg.xlsx
+++ b/config_Release/xiaoxiaole_sh_defen_cfg.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="yazhu|消消乐押注" sheetId="6" r:id="rId1"/>
@@ -466,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -499,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -521,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -532,7 +532,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>30000</v>
+        <v>60000</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -557,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -571,10 +574,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>240000</v>
+        <v>480000</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -585,7 +588,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="2">
-        <v>480000</v>
+        <v>960000</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -599,10 +602,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="2">
-        <v>960000</v>
+        <v>1920000</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -613,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="2">
-        <v>1920000</v>
+        <v>5120000</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -627,10 +630,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="2">
-        <v>5120000</v>
+        <v>10240000</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -641,25 +644,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="2">
-        <v>10240000</v>
+        <v>20480000</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2">
-        <v>20480000</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
@@ -732,12 +726,7 @@
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -880,13 +869,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -916,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>30000</v>
+        <v>300000</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -928,10 +921,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>30000</v>
+        <v>300000</v>
       </c>
       <c r="D3" s="2">
-        <v>60000</v>
+        <v>600000</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -943,10 +936,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>60000</v>
+        <v>600000</v>
       </c>
       <c r="D4" s="2">
-        <v>120000</v>
+        <v>1800000</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -958,10 +951,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>120000</v>
+        <v>1800000</v>
       </c>
       <c r="D5" s="2">
-        <v>240000</v>
+        <v>3600000</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -973,10 +966,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>240000</v>
-      </c>
-      <c r="D6" s="6">
-        <v>480000</v>
+        <v>3600000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7200000</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -987,11 +980,11 @@
       <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
-        <v>480000</v>
-      </c>
-      <c r="D7" s="6">
-        <v>900000</v>
+      <c r="C7" s="2">
+        <v>7200000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>14400000</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -1002,11 +995,11 @@
       <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
-        <v>900000</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1800000</v>
+      <c r="C8" s="2">
+        <v>14400000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>28800000</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -1017,11 +1010,11 @@
       <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C9" s="6">
-        <v>1800000</v>
-      </c>
-      <c r="D9" s="6">
-        <v>3600000</v>
+      <c r="C9" s="2">
+        <v>28800000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>57600000</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -1032,11 +1025,11 @@
       <c r="B10" s="6">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
-        <v>3600000</v>
-      </c>
-      <c r="D10" s="6">
-        <v>7200000</v>
+      <c r="C10" s="2">
+        <v>57600000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>115200000</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -1047,11 +1040,11 @@
       <c r="B11" s="6">
         <v>10</v>
       </c>
-      <c r="C11" s="6">
-        <v>7200000</v>
-      </c>
-      <c r="D11" s="6">
-        <v>14400000</v>
+      <c r="C11" s="2">
+        <v>115200000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>307200000</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -1062,11 +1055,11 @@
       <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="6">
-        <v>14400000</v>
-      </c>
-      <c r="D12">
-        <v>28800000</v>
+      <c r="C12" s="2">
+        <v>307200000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>614400000</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -1077,25 +1070,11 @@
       <c r="B13" s="6">
         <v>12</v>
       </c>
-      <c r="C13">
-        <v>28800000</v>
-      </c>
-      <c r="D13">
-        <v>57600000</v>
-      </c>
+      <c r="C13" s="2">
+        <v>614400000</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>57600000</v>
-      </c>
-      <c r="G14" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/config_Release/xiaoxiaole_sh_defen_cfg.xlsx
+++ b/config_Release/xiaoxiaole_sh_defen_cfg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -872,7 +872,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>300000</v>
+        <v>60000</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -921,10 +921,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>300000</v>
+        <v>60000</v>
       </c>
       <c r="D3" s="2">
-        <v>600000</v>
+        <v>180000</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -936,10 +936,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>600000</v>
+        <v>180000</v>
       </c>
       <c r="D4" s="2">
-        <v>1800000</v>
+        <v>360000</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -951,10 +951,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>1800000</v>
+        <v>360000</v>
       </c>
       <c r="D5" s="2">
-        <v>3600000</v>
+        <v>720000</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -966,10 +966,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>3600000</v>
+        <v>720000</v>
       </c>
       <c r="D6" s="2">
-        <v>7200000</v>
+        <v>1440000</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -981,10 +981,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>7200000</v>
+        <v>1440000</v>
       </c>
       <c r="D7" s="2">
-        <v>14400000</v>
+        <v>2880000</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -996,10 +996,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>14400000</v>
+        <v>2880000</v>
       </c>
       <c r="D8" s="2">
-        <v>28800000</v>
+        <v>5760000</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -1011,10 +1011,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2">
-        <v>28800000</v>
+        <v>5760000</v>
       </c>
       <c r="D9" s="2">
-        <v>57600000</v>
+        <v>11520000</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -1026,10 +1026,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="2">
-        <v>57600000</v>
+        <v>11520000</v>
       </c>
       <c r="D10" s="2">
-        <v>115200000</v>
+        <v>30720000</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -1041,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="2">
-        <v>115200000</v>
+        <v>30720000</v>
       </c>
       <c r="D11" s="2">
-        <v>307200000</v>
+        <v>61440000</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -1056,10 +1056,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="2">
-        <v>307200000</v>
+        <v>61440000</v>
       </c>
       <c r="D12" s="2">
-        <v>614400000</v>
+        <v>122880000</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -1071,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="2">
-        <v>614400000</v>
+        <v>122880000</v>
       </c>
       <c r="D13" s="2"/>
       <c r="G13" s="2"/>
